--- a/Data/FD_DWA_Sprint-I_16.xlsx
+++ b/Data/FD_DWA_Sprint-I_16.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA Sprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084511F7-E6D8-487D-A30E-17172F275AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,9 +198,6 @@
     <t>I_16_0019</t>
   </si>
   <si>
-    <t>i_16_0020</t>
-  </si>
-  <si>
     <t>Westrhauderfehn</t>
   </si>
   <si>
@@ -599,9 +597,6 @@
     <t>Bötersen</t>
   </si>
   <si>
-    <t>_16_0077</t>
-  </si>
-  <si>
     <t>Sottrum</t>
   </si>
   <si>
@@ -843,12 +838,18 @@
   </si>
   <si>
     <t>Schierbrok</t>
+  </si>
+  <si>
+    <t>I_16_0077</t>
+  </si>
+  <si>
+    <t>I_16_0020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -909,7 +910,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1220,14 +1221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
@@ -1491,7 +1492,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G9" s="3">
         <v>999</v>
@@ -1839,10 +1840,10 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G21" s="3">
         <v>999</v>
@@ -1868,10 +1869,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="G22" s="3">
         <v>999</v>
@@ -1897,16 +1898,16 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3">
+        <v>999</v>
+      </c>
+      <c r="H23" t="s">
         <v>62</v>
-      </c>
-      <c r="G23" s="3">
-        <v>999</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1926,16 +1927,16 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1955,10 +1956,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G25" s="3">
         <v>999</v>
@@ -1970,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1987,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
@@ -2016,16 +2017,16 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="G27" s="3">
         <v>999</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
@@ -2045,16 +2046,16 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="G28" s="3">
         <v>999</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>12</v>
@@ -2074,16 +2075,16 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>12</v>
@@ -2104,16 +2105,16 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="G30" s="3">
         <v>999</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>12</v>
@@ -2133,16 +2134,16 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G31" s="3">
         <v>999</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>12</v>
@@ -2162,16 +2163,16 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3">
+        <v>999</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="G32" s="3">
-        <v>999</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="I32" s="3">
         <v>999</v>
@@ -2191,22 +2192,22 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2223,16 +2224,16 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G34" s="3">
         <v>999</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>12</v>
@@ -2252,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G35" s="3">
         <v>999</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>12</v>
@@ -2281,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>12</v>
@@ -2310,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
@@ -2339,16 +2340,16 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3">
+        <v>999</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G38" s="3">
-        <v>999</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>12</v>
@@ -2368,10 +2369,10 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="G39" s="3">
         <v>999</v>
@@ -2397,22 +2398,22 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="G40" s="3">
         <v>999</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,10 +2430,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="G41" s="3">
         <v>999</v>
@@ -2458,10 +2459,10 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="G42" s="3">
         <v>999</v>
@@ -2487,16 +2488,16 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="G43" s="3">
         <v>999</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>12</v>
@@ -2516,10 +2517,10 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="G44" s="3">
         <v>999</v>
@@ -2545,16 +2546,16 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="G45" s="3">
         <v>999</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>12</v>
@@ -2574,16 +2575,16 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3">
+        <v>999</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="G46" s="3">
-        <v>999</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>12</v>
@@ -2603,16 +2604,16 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="G47" s="3">
         <v>999</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>12</v>
@@ -2632,16 +2633,16 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="G48" s="3">
         <v>999</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I48" s="3">
         <v>999</v>
@@ -2661,16 +2662,16 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>11</v>
@@ -2690,19 +2691,19 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G50" s="3">
         <v>999</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2719,16 +2720,16 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="G51" s="3">
         <v>999</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I51" s="3">
         <v>999</v>
@@ -2748,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="G52" s="3">
         <v>999</v>
@@ -2760,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2777,10 +2778,10 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="G53" s="3">
         <v>999</v>
@@ -2806,10 +2807,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G54" s="3">
         <v>999</v>
@@ -2835,10 +2836,10 @@
         <v>4</v>
       </c>
       <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="G55" s="3">
         <v>999</v>
@@ -2864,16 +2865,16 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="G56" s="3">
         <v>999</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>12</v>
@@ -2893,10 +2894,10 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="G57" s="3">
         <v>999</v>
@@ -2922,16 +2923,16 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="H58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I58" s="3">
         <v>999</v>
@@ -2951,22 +2952,22 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="G59" s="3">
         <v>999</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2983,10 +2984,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="G60" s="3">
         <v>999</v>
@@ -3012,16 +3013,16 @@
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="3">
+        <v>999</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="G61" s="3">
-        <v>999</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="I61">
         <v>999</v>
@@ -3041,16 +3042,16 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="G62" s="3">
         <v>999</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I62">
         <v>999</v>
@@ -3070,19 +3071,19 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="G63" s="3">
         <v>999</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3099,19 +3100,19 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="G64" s="3">
         <v>999</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3128,16 +3129,16 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" s="3">
+        <v>999</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="G65" s="3">
-        <v>999</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>10</v>
@@ -3157,16 +3158,16 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3">
+        <v>999</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="G66" s="3">
-        <v>999</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>10</v>
@@ -3186,16 +3187,16 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="G67" s="3">
         <v>999</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>10</v>
@@ -3215,16 +3216,16 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="G68" s="3">
         <v>999</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>10</v>
@@ -3244,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G69" s="3">
         <v>999</v>
@@ -3273,16 +3274,16 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="G70" s="3">
         <v>999</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>10</v>
@@ -3302,16 +3303,16 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G71" s="3">
         <v>999</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>10</v>
@@ -3331,16 +3332,16 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
+        <v>176</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="G72" s="3">
         <v>999</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
@@ -3360,16 +3361,16 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="G73" s="3">
         <v>999</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>10</v>
@@ -3389,16 +3390,16 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" s="3">
+        <v>999</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G74" s="3">
-        <v>999</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>10</v>
@@ -3418,16 +3419,16 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G75" s="3">
         <v>999</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>10</v>
@@ -3447,16 +3448,16 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="G76" s="3">
         <v>999</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>10</v>
@@ -3476,16 +3477,16 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G77" s="3">
         <v>999</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>10</v>
@@ -3505,16 +3506,16 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G78" s="3">
         <v>999</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>10</v>
@@ -3534,22 +3535,22 @@
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G79" s="3">
         <v>999</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3566,16 +3567,16 @@
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G80" s="3">
         <v>999</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>10</v>
@@ -3595,16 +3596,16 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G81" s="3">
         <v>999</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>10</v>
@@ -3624,16 +3625,16 @@
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G82" s="3">
         <v>999</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>10</v>
@@ -3653,16 +3654,16 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>999</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>10</v>
@@ -3682,16 +3683,16 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G84" s="3">
         <v>999</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>10</v>
@@ -3711,16 +3712,16 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G85" s="3">
         <v>999</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>10</v>
@@ -3740,16 +3741,16 @@
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>10</v>
@@ -3769,16 +3770,16 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G87" s="3">
         <v>999</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>10</v>
@@ -3798,16 +3799,16 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G88" s="3">
         <v>999</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>10</v>
@@ -3827,16 +3828,16 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G89" s="3">
         <v>999</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>10</v>
@@ -3856,16 +3857,16 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G90" s="3">
         <v>999</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>10</v>
@@ -3885,16 +3886,16 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G91" s="3">
         <v>999</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
@@ -3914,16 +3915,16 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
+        <v>217</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G92" s="3">
+        <v>999</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G92" s="3">
-        <v>999</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>10</v>
@@ -3943,16 +3944,16 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G93" s="3">
         <v>999</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>10</v>
@@ -3972,16 +3973,16 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G94" s="3">
         <v>999</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>10</v>
@@ -4001,16 +4002,16 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G95" s="3">
         <v>999</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>10</v>
@@ -4030,16 +4031,16 @@
         <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G96" s="3">
         <v>999</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>10</v>
@@ -4059,16 +4060,16 @@
         <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G97" s="3">
         <v>999</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>10</v>
@@ -4088,16 +4089,16 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G98" s="3">
         <v>999</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>10</v>
@@ -4117,16 +4118,16 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G99" s="3">
         <v>999</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>10</v>
@@ -4146,16 +4147,16 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G100" s="3">
         <v>999</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>10</v>
@@ -4175,16 +4176,16 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G101" s="3">
         <v>999</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>10</v>
@@ -4204,16 +4205,16 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
+        <v>238</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G102" s="3">
+        <v>999</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G102" s="3">
-        <v>999</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>10</v>
@@ -4233,16 +4234,16 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G103" s="3">
         <v>999</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>10</v>
@@ -4262,16 +4263,16 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G104" s="3">
         <v>999</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>10</v>
@@ -4291,16 +4292,16 @@
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G105" s="3">
         <v>999</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>10</v>
@@ -4320,16 +4321,16 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="H106" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>10</v>
@@ -4349,16 +4350,16 @@
         <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G107" s="3">
         <v>999</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>10</v>
@@ -4378,16 +4379,16 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
+        <v>252</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>10</v>
@@ -4407,16 +4408,16 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G109" s="3">
         <v>999</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>10</v>
@@ -4436,16 +4437,16 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G110" s="3">
         <v>999</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>10</v>
@@ -4465,16 +4466,16 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G111" s="3">
         <v>999</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>10</v>
@@ -4494,10 +4495,10 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G112" s="3">
         <v>999</v>
@@ -4523,16 +4524,16 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G113" s="3">
         <v>999</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>12</v>
@@ -4552,16 +4553,16 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G114" s="3">
         <v>999</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>10</v>
@@ -4581,16 +4582,16 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G115" s="3">
         <v>999</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>10</v>
@@ -4610,16 +4611,16 @@
         <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G116" s="3">
         <v>999</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>12</v>
